--- a/doc/04.Schedule/计划及总结/201701-201702 计划管控表 - 林 - 170209.xlsx
+++ b/doc/04.Schedule/计划及总结/201701-201702 计划管控表 - 林 - 170209.xlsx
@@ -18,7 +18,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">林福生!$A$2:$AS$2</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">林福生!$A$1:$L$2</definedName>
   </definedNames>
-  <calcPr calcId="150001"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="111">
   <si>
     <t>提示：点上面加号可以展开计划审核明细</t>
   </si>
@@ -246,22 +246,10 @@
     <t>9</t>
   </si>
   <si>
-    <t>买卖操作判断修改/导入默认路径保存/</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
     <t>投资决策</t>
   </si>
   <si>
-    <t>投资决策流程权限控制Bug修改和决策操作便捷改善</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
     <t>数据导入</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>交易员委托数据和财务交割单数据导入修改优化</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
@@ -294,17 +282,7 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>1、账户配置规划表样式颜色字体设置。
-2、增加投资主体的资金信息表，并在账户管理画面增加投资主题的资金信息录入修改处理
-3、修改账户仓位配置规划表的后台处理，主体资金统计部分改为使用新增的主题资金信息表中的数据。</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
     <t>基础数据</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>账户信息增加账户负责人</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
@@ -325,18 +303,6 @@
   </si>
   <si>
     <t>决策操作记录的交易记录关联画面增加选择记录的合计交易数据（数量/金额等）。</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>取消账户信息默认选中/买卖操作判断修改/导入默认路径保存/</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加决策股票池和决策委员会变更日志</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加相应日志表和管理画面处理修改</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
@@ -482,14 +448,34 @@
     <t>20</t>
   </si>
   <si>
-    <t>21</t>
+    <t>1、根据画面说明文档重新设计数据库表
+2、界面修改及后台处理开发</t>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>22</t>
+    <t>投资决策流程权限控制Bug修改和决策操作便捷改善</t>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>1、根据画面说明文档重新设计数据库表
-2、界面修改及后台处理开发</t>
+    <t>数据导入</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户信息增加账户负责人</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易员委托数据和财务交割单数据导入修改优化</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消账户信息默认选中/买卖操作判断修改/导入默认路径保存</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、账户配置规划表样式颜色字体设置。
+2、增加投资主体的资金信息表，并在账户管理画面增加投资主题的资金信息录入修改处理
+3、修改账户仓位配置规划表的后台处理，主体资金统计部分改为使用新增的主体资金信息表中的数据。</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
@@ -881,11 +867,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="4" fillId="9" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="9" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1198,10 +1184,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AV239"/>
+  <dimension ref="A1:AV237"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="12" outlineLevelCol="1"/>
@@ -1251,20 +1237,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:46" s="1" customFormat="1" ht="25.35" customHeight="1">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
       <c r="M1" s="2"/>
       <c r="N1" s="24"/>
       <c r="O1" s="25"/>
@@ -1436,7 +1422,7 @@
     </row>
     <row r="3" spans="1:46" s="13" customFormat="1" ht="23.25" customHeight="1">
       <c r="A3" s="6" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>35</v>
@@ -1448,19 +1434,19 @@
         <v>37</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>38</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>53</v>
+        <v>105</v>
       </c>
       <c r="H3" s="8"/>
-      <c r="I3" s="50">
+      <c r="I3" s="49">
         <v>42738</v>
       </c>
-      <c r="J3" s="50">
+      <c r="J3" s="49">
         <v>42738</v>
       </c>
       <c r="K3" s="11" t="s">
@@ -1470,7 +1456,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:46" s="13" customFormat="1" ht="27.75" customHeight="1">
+    <row r="4" spans="1:46" s="13" customFormat="1" ht="49.5" customHeight="1">
       <c r="A4" s="6" t="s">
         <v>44</v>
       </c>
@@ -1484,21 +1470,21 @@
         <v>37</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>38</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="I4" s="50">
+        <v>54</v>
+      </c>
+      <c r="I4" s="49">
         <v>42739</v>
       </c>
-      <c r="J4" s="50">
+      <c r="J4" s="49">
         <v>42739</v>
       </c>
       <c r="K4" s="11" t="s">
@@ -1507,8 +1493,38 @@
       <c r="L4" s="11" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="5" spans="1:46" s="13" customFormat="1" ht="49.5" customHeight="1">
+      <c r="N4" s="16"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="18"/>
+      <c r="V4" s="18"/>
+      <c r="W4" s="16"/>
+      <c r="Z4" s="14"/>
+      <c r="AA4" s="14"/>
+      <c r="AB4" s="14"/>
+      <c r="AC4" s="14"/>
+      <c r="AD4" s="14"/>
+      <c r="AE4" s="14"/>
+      <c r="AF4" s="14"/>
+      <c r="AG4" s="14"/>
+      <c r="AH4" s="14"/>
+      <c r="AI4" s="14"/>
+      <c r="AJ4" s="14"/>
+      <c r="AK4" s="14"/>
+      <c r="AL4" s="14"/>
+      <c r="AM4" s="18"/>
+      <c r="AN4" s="18"/>
+      <c r="AO4" s="18"/>
+      <c r="AP4" s="18"/>
+      <c r="AQ4" s="18"/>
+      <c r="AR4" s="14"/>
+      <c r="AS4" s="18"/>
+      <c r="AT4" s="18"/>
+    </row>
+    <row r="5" spans="1:46" s="13" customFormat="1" ht="66" customHeight="1">
       <c r="A5" s="6" t="s">
         <v>45</v>
       </c>
@@ -1522,22 +1538,22 @@
         <v>37</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>38</v>
       </c>
       <c r="G5" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="H5" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="H5" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="I5" s="50">
-        <v>42739</v>
-      </c>
-      <c r="J5" s="50">
-        <v>42739</v>
+      <c r="I5" s="49">
+        <v>42740</v>
+      </c>
+      <c r="J5" s="49">
+        <v>42740</v>
       </c>
       <c r="K5" s="11" t="s">
         <v>39</v>
@@ -1576,7 +1592,7 @@
       <c r="AS5" s="18"/>
       <c r="AT5" s="18"/>
     </row>
-    <row r="6" spans="1:46" s="13" customFormat="1" ht="66" customHeight="1">
+    <row r="6" spans="1:46" s="13" customFormat="1" ht="44.25" customHeight="1">
       <c r="A6" s="6" t="s">
         <v>46</v>
       </c>
@@ -1590,7 +1606,7 @@
         <v>37</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>38</v>
@@ -1599,13 +1615,13 @@
         <v>58</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="I6" s="50">
-        <v>42740</v>
-      </c>
-      <c r="J6" s="50">
-        <v>42740</v>
+        <v>43</v>
+      </c>
+      <c r="I6" s="49">
+        <v>42741</v>
+      </c>
+      <c r="J6" s="49">
+        <v>42741</v>
       </c>
       <c r="K6" s="11" t="s">
         <v>39</v>
@@ -1644,7 +1660,7 @@
       <c r="AS6" s="18"/>
       <c r="AT6" s="18"/>
     </row>
-    <row r="7" spans="1:46" s="13" customFormat="1" ht="44.25" customHeight="1">
+    <row r="7" spans="1:46" s="13" customFormat="1" ht="86.25" customHeight="1">
       <c r="A7" s="6" t="s">
         <v>47</v>
       </c>
@@ -1658,21 +1674,21 @@
         <v>37</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>38</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="I7" s="50">
+        <v>110</v>
+      </c>
+      <c r="I7" s="49">
         <v>42741</v>
       </c>
-      <c r="J7" s="50">
+      <c r="J7" s="49">
         <v>42741</v>
       </c>
       <c r="K7" s="11" t="s">
@@ -1712,7 +1728,7 @@
       <c r="AS7" s="18"/>
       <c r="AT7" s="18"/>
     </row>
-    <row r="8" spans="1:46" s="13" customFormat="1" ht="86.25" customHeight="1">
+    <row r="8" spans="1:46" s="13" customFormat="1" ht="25.5" customHeight="1">
       <c r="A8" s="6" t="s">
         <v>48</v>
       </c>
@@ -1726,22 +1742,22 @@
         <v>37</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>38</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>62</v>
+        <v>107</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="I8" s="50">
-        <v>42741</v>
-      </c>
-      <c r="J8" s="50">
-        <v>42741</v>
+        <v>61</v>
+      </c>
+      <c r="I8" s="49">
+        <v>42744</v>
+      </c>
+      <c r="J8" s="49">
+        <v>42744</v>
       </c>
       <c r="K8" s="11" t="s">
         <v>39</v>
@@ -1749,40 +1765,10 @@
       <c r="L8" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="N8" s="16"/>
-      <c r="O8" s="18"/>
-      <c r="P8" s="18"/>
-      <c r="Q8" s="18"/>
-      <c r="R8" s="18"/>
-      <c r="S8" s="18"/>
-      <c r="T8" s="18"/>
-      <c r="V8" s="18"/>
-      <c r="W8" s="16"/>
-      <c r="Z8" s="14"/>
-      <c r="AA8" s="14"/>
-      <c r="AB8" s="14"/>
-      <c r="AC8" s="14"/>
-      <c r="AD8" s="14"/>
-      <c r="AE8" s="14"/>
-      <c r="AF8" s="14"/>
-      <c r="AG8" s="14"/>
-      <c r="AH8" s="14"/>
-      <c r="AI8" s="14"/>
-      <c r="AJ8" s="14"/>
-      <c r="AK8" s="14"/>
-      <c r="AL8" s="14"/>
-      <c r="AM8" s="18"/>
-      <c r="AN8" s="18"/>
-      <c r="AO8" s="18"/>
-      <c r="AP8" s="18"/>
-      <c r="AQ8" s="18"/>
-      <c r="AR8" s="14"/>
-      <c r="AS8" s="18"/>
-      <c r="AT8" s="18"/>
-    </row>
-    <row r="9" spans="1:46" s="13" customFormat="1" ht="25.5" customHeight="1">
+    </row>
+    <row r="9" spans="1:46" s="13" customFormat="1" ht="38.25" customHeight="1">
       <c r="A9" s="6" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>35</v>
@@ -1794,21 +1780,21 @@
         <v>37</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>38</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="I9" s="50">
-        <v>42744</v>
-      </c>
-      <c r="J9" s="50">
+        <v>63</v>
+      </c>
+      <c r="I9" s="49">
+        <v>42745</v>
+      </c>
+      <c r="J9" s="49">
         <v>42744</v>
       </c>
       <c r="K9" s="11" t="s">
@@ -1818,7 +1804,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:46" s="13" customFormat="1" ht="38.25" customHeight="1">
+    <row r="10" spans="1:46" s="13" customFormat="1" ht="49.5" customHeight="1">
       <c r="A10" s="6" t="s">
         <v>49</v>
       </c>
@@ -1832,22 +1818,22 @@
         <v>37</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>38</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="I10" s="50">
+        <v>65</v>
+      </c>
+      <c r="I10" s="49">
+        <v>42746</v>
+      </c>
+      <c r="J10" s="49">
         <v>42745</v>
-      </c>
-      <c r="J10" s="50">
-        <v>42744</v>
       </c>
       <c r="K10" s="11" t="s">
         <v>39</v>
@@ -1856,7 +1842,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:46" s="13" customFormat="1" ht="49.5" customHeight="1">
+    <row r="11" spans="1:46" s="13" customFormat="1" ht="38.25" customHeight="1">
       <c r="A11" s="6" t="s">
         <v>50</v>
       </c>
@@ -1870,22 +1856,22 @@
         <v>37</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>52</v>
+        <v>106</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>38</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="I11" s="50">
-        <v>42746</v>
-      </c>
-      <c r="J11" s="50">
-        <v>42745</v>
+        <v>109</v>
+      </c>
+      <c r="I11" s="49">
+        <v>42747</v>
+      </c>
+      <c r="J11" s="49">
+        <v>42747</v>
       </c>
       <c r="K11" s="11" t="s">
         <v>39</v>
@@ -1894,9 +1880,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:46" s="13" customFormat="1" ht="38.25" customHeight="1">
+    <row r="12" spans="1:46" s="13" customFormat="1" ht="42" customHeight="1">
       <c r="A12" s="6" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>35</v>
@@ -1908,22 +1894,22 @@
         <v>37</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>38</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="I12" s="50">
-        <v>42747</v>
-      </c>
-      <c r="J12" s="50">
-        <v>42747</v>
+        <v>66</v>
+      </c>
+      <c r="I12" s="49">
+        <v>42748</v>
+      </c>
+      <c r="J12" s="49">
+        <v>42748</v>
       </c>
       <c r="K12" s="11" t="s">
         <v>39</v>
@@ -1932,9 +1918,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:46" s="13" customFormat="1" ht="24" customHeight="1">
+    <row r="13" spans="1:46" s="13" customFormat="1" ht="38.25" customHeight="1">
       <c r="A13" s="6" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>35</v>
@@ -1946,22 +1932,22 @@
         <v>37</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>38</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="I13" s="50">
-        <v>42748</v>
-      </c>
-      <c r="J13" s="50">
-        <v>42748</v>
+        <v>67</v>
+      </c>
+      <c r="I13" s="49">
+        <v>42751</v>
+      </c>
+      <c r="J13" s="49">
+        <v>42751</v>
       </c>
       <c r="K13" s="11" t="s">
         <v>39</v>
@@ -1969,10 +1955,12 @@
       <c r="L13" s="11" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="14" spans="1:46" s="13" customFormat="1" ht="42" customHeight="1">
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+    </row>
+    <row r="14" spans="1:46" s="13" customFormat="1" ht="19.5" customHeight="1">
       <c r="A14" s="6" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>35</v>
@@ -1984,22 +1972,22 @@
         <v>37</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>38</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="I14" s="50">
-        <v>42748</v>
-      </c>
-      <c r="J14" s="50">
-        <v>42748</v>
+        <v>69</v>
+      </c>
+      <c r="I14" s="49">
+        <v>42752</v>
+      </c>
+      <c r="J14" s="49">
+        <v>42752</v>
       </c>
       <c r="K14" s="11" t="s">
         <v>39</v>
@@ -2007,10 +1995,12 @@
       <c r="L14" s="11" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="15" spans="1:46" s="13" customFormat="1" ht="38.25" customHeight="1">
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+    </row>
+    <row r="15" spans="1:46" s="13" customFormat="1" ht="22.5" customHeight="1">
       <c r="A15" s="6" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>35</v>
@@ -2022,22 +2012,22 @@
         <v>37</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>38</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="I15" s="50">
-        <v>42751</v>
-      </c>
-      <c r="J15" s="50">
-        <v>42751</v>
+        <v>72</v>
+      </c>
+      <c r="I15" s="49">
+        <v>42755</v>
+      </c>
+      <c r="J15" s="49">
+        <v>42755</v>
       </c>
       <c r="K15" s="11" t="s">
         <v>39</v>
@@ -2048,9 +2038,9 @@
       <c r="M15" s="18"/>
       <c r="N15" s="18"/>
     </row>
-    <row r="16" spans="1:46" s="13" customFormat="1" ht="19.5" customHeight="1">
+    <row r="16" spans="1:46" s="13" customFormat="1" ht="35.25" customHeight="1">
       <c r="A16" s="6" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>35</v>
@@ -2062,22 +2052,22 @@
         <v>37</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="G16" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="H16" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="H16" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="I16" s="50">
-        <v>42752</v>
-      </c>
-      <c r="J16" s="50">
-        <v>42752</v>
+      <c r="I16" s="49">
+        <v>42755</v>
+      </c>
+      <c r="J16" s="49">
+        <v>42755</v>
       </c>
       <c r="K16" s="11" t="s">
         <v>39</v>
@@ -2088,9 +2078,9 @@
       <c r="M16" s="18"/>
       <c r="N16" s="18"/>
     </row>
-    <row r="17" spans="1:48" s="13" customFormat="1" ht="22.5" customHeight="1">
+    <row r="17" spans="1:48" s="13" customFormat="1" ht="47.25" customHeight="1">
       <c r="A17" s="6" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>35</v>
@@ -2102,35 +2092,35 @@
         <v>37</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>38</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="I17" s="50">
-        <v>42755</v>
-      </c>
-      <c r="J17" s="50">
-        <v>42755</v>
+        <v>78</v>
+      </c>
+      <c r="I17" s="49">
+        <v>42773</v>
+      </c>
+      <c r="J17" s="49">
+        <v>42773</v>
       </c>
       <c r="K17" s="11" t="s">
         <v>39</v>
       </c>
       <c r="L17" s="11" t="s">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="M17" s="18"/>
       <c r="N17" s="18"/>
     </row>
-    <row r="18" spans="1:48" s="13" customFormat="1" ht="35.25" customHeight="1">
+    <row r="18" spans="1:48" s="13" customFormat="1" ht="36" customHeight="1">
       <c r="A18" s="6" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>35</v>
@@ -2142,22 +2132,22 @@
         <v>37</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>82</v>
+        <v>38</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="I18" s="50">
-        <v>42755</v>
-      </c>
-      <c r="J18" s="50">
-        <v>42755</v>
+        <v>104</v>
+      </c>
+      <c r="I18" s="49">
+        <v>42775</v>
+      </c>
+      <c r="J18" s="49">
+        <v>42775</v>
       </c>
       <c r="K18" s="11" t="s">
         <v>39</v>
@@ -2168,9 +2158,9 @@
       <c r="M18" s="18"/>
       <c r="N18" s="18"/>
     </row>
-    <row r="19" spans="1:48" s="13" customFormat="1" ht="47.25" customHeight="1">
+    <row r="19" spans="1:48" s="13" customFormat="1" ht="33" customHeight="1">
       <c r="A19" s="6" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>35</v>
@@ -2182,35 +2172,35 @@
         <v>37</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>38</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="I19" s="50">
-        <v>42773</v>
-      </c>
-      <c r="J19" s="50">
-        <v>42773</v>
+        <v>82</v>
+      </c>
+      <c r="I19" s="49">
+        <v>42775</v>
+      </c>
+      <c r="J19" s="49">
+        <v>42775</v>
       </c>
       <c r="K19" s="11" t="s">
         <v>39</v>
       </c>
       <c r="L19" s="11" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="M19" s="18"/>
       <c r="N19" s="18"/>
     </row>
-    <row r="20" spans="1:48" s="13" customFormat="1" ht="36" customHeight="1">
+    <row r="20" spans="1:48" s="13" customFormat="1" ht="27" customHeight="1">
       <c r="A20" s="6" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>35</v>
@@ -2222,23 +2212,21 @@
         <v>37</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>38</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="I20" s="50">
-        <v>42775</v>
-      </c>
-      <c r="J20" s="50">
-        <v>42775</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="I20" s="10">
+        <v>42780</v>
+      </c>
+      <c r="J20" s="10"/>
       <c r="K20" s="11" t="s">
         <v>39</v>
       </c>
@@ -2248,9 +2236,9 @@
       <c r="M20" s="18"/>
       <c r="N20" s="18"/>
     </row>
-    <row r="21" spans="1:48" s="13" customFormat="1" ht="33" customHeight="1">
+    <row r="21" spans="1:48" s="13" customFormat="1" ht="30" customHeight="1">
       <c r="A21" s="6" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>35</v>
@@ -2262,35 +2250,33 @@
         <v>37</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>38</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="I21" s="50">
-        <v>42775</v>
-      </c>
-      <c r="J21" s="50">
-        <v>42775</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="I21" s="10">
+        <v>42783</v>
+      </c>
+      <c r="J21" s="10"/>
       <c r="K21" s="11" t="s">
         <v>39</v>
       </c>
       <c r="L21" s="11" t="s">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="M21" s="18"/>
       <c r="N21" s="18"/>
     </row>
-    <row r="22" spans="1:48" s="13" customFormat="1" ht="27" customHeight="1">
+    <row r="22" spans="1:48" s="13" customFormat="1" ht="29.25" customHeight="1">
       <c r="A22" s="6" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>35</v>
@@ -2302,21 +2288,21 @@
         <v>37</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>38</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>93</v>
+        <v>42</v>
       </c>
       <c r="I22" s="10">
-        <v>42780</v>
-      </c>
-      <c r="J22" s="10"/>
+        <v>42804</v>
+      </c>
+      <c r="J22" s="21"/>
       <c r="K22" s="11" t="s">
         <v>39</v>
       </c>
@@ -2326,81 +2312,97 @@
       <c r="M22" s="18"/>
       <c r="N22" s="18"/>
     </row>
-    <row r="23" spans="1:48" s="13" customFormat="1" ht="30" customHeight="1">
-      <c r="A23" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G23" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="I23" s="10">
-        <v>42783</v>
-      </c>
-      <c r="J23" s="10"/>
-      <c r="K23" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="L23" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="M23" s="18"/>
-      <c r="N23" s="18"/>
-    </row>
-    <row r="24" spans="1:48" s="13" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A24" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G24" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="H24" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="I24" s="10">
-        <v>42804</v>
-      </c>
+    <row r="23" spans="1:48" s="13" customFormat="1" ht="25.35" customHeight="1">
+      <c r="A23" s="6"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="39"/>
+      <c r="N23" s="11"/>
+      <c r="P23" s="16"/>
+      <c r="Q23" s="18"/>
+      <c r="R23" s="18"/>
+      <c r="S23" s="18"/>
+      <c r="T23" s="18"/>
+      <c r="U23" s="18"/>
+      <c r="V23" s="18"/>
+      <c r="X23" s="18"/>
+      <c r="Y23" s="16"/>
+      <c r="AB23" s="14"/>
+      <c r="AC23" s="14"/>
+      <c r="AD23" s="14"/>
+      <c r="AE23" s="14"/>
+      <c r="AF23" s="14"/>
+      <c r="AG23" s="14"/>
+      <c r="AH23" s="14"/>
+      <c r="AI23" s="14"/>
+      <c r="AJ23" s="14"/>
+      <c r="AK23" s="14"/>
+      <c r="AL23" s="14"/>
+      <c r="AM23" s="14"/>
+      <c r="AN23" s="14"/>
+      <c r="AO23" s="18"/>
+      <c r="AP23" s="18"/>
+      <c r="AQ23" s="18"/>
+      <c r="AR23" s="18"/>
+      <c r="AS23" s="18"/>
+      <c r="AT23" s="14"/>
+      <c r="AU23" s="18"/>
+      <c r="AV23" s="18"/>
+    </row>
+    <row r="24" spans="1:48" s="13" customFormat="1" ht="25.35" customHeight="1">
+      <c r="A24" s="6"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="21"/>
       <c r="J24" s="21"/>
-      <c r="K24" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="L24" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="M24" s="18"/>
-      <c r="N24" s="18"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="39"/>
+      <c r="N24" s="11"/>
+      <c r="P24" s="16"/>
+      <c r="Q24" s="18"/>
+      <c r="R24" s="18"/>
+      <c r="S24" s="18"/>
+      <c r="T24" s="18"/>
+      <c r="U24" s="18"/>
+      <c r="V24" s="18"/>
+      <c r="X24" s="18"/>
+      <c r="Y24" s="16"/>
+      <c r="AB24" s="14"/>
+      <c r="AC24" s="14"/>
+      <c r="AD24" s="14"/>
+      <c r="AE24" s="14"/>
+      <c r="AF24" s="14"/>
+      <c r="AG24" s="14"/>
+      <c r="AH24" s="14"/>
+      <c r="AI24" s="14"/>
+      <c r="AJ24" s="14"/>
+      <c r="AK24" s="14"/>
+      <c r="AL24" s="14"/>
+      <c r="AM24" s="14"/>
+      <c r="AN24" s="14"/>
+      <c r="AO24" s="18"/>
+      <c r="AP24" s="18"/>
+      <c r="AQ24" s="18"/>
+      <c r="AR24" s="18"/>
+      <c r="AS24" s="18"/>
+      <c r="AT24" s="14"/>
+      <c r="AU24" s="18"/>
+      <c r="AV24" s="18"/>
     </row>
     <row r="25" spans="1:48" s="13" customFormat="1" ht="25.35" customHeight="1">
       <c r="A25" s="6"/>
@@ -2588,9 +2590,9 @@
     </row>
     <row r="29" spans="1:48" s="13" customFormat="1" ht="25.35" customHeight="1">
       <c r="A29" s="6"/>
-      <c r="B29" s="22"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="9"/>
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
       <c r="G29" s="9"/>
@@ -2634,9 +2636,9 @@
     </row>
     <row r="30" spans="1:48" s="13" customFormat="1" ht="25.35" customHeight="1">
       <c r="A30" s="6"/>
-      <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="23"/>
       <c r="E30" s="11"/>
       <c r="F30" s="11"/>
       <c r="G30" s="9"/>
@@ -2772,9 +2774,9 @@
     </row>
     <row r="33" spans="1:48" s="13" customFormat="1" ht="25.35" customHeight="1">
       <c r="A33" s="6"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="9"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="23"/>
       <c r="E33" s="11"/>
       <c r="F33" s="11"/>
       <c r="G33" s="9"/>
@@ -6036,7 +6038,7 @@
       <c r="AU103" s="18"/>
       <c r="AV103" s="18"/>
     </row>
-    <row r="104" spans="1:48" s="13" customFormat="1" ht="25.35" customHeight="1">
+    <row r="104" spans="1:48" ht="25.35" customHeight="1">
       <c r="A104" s="6"/>
       <c r="B104" s="7"/>
       <c r="C104" s="7"/>
@@ -6051,42 +6053,12 @@
       <c r="L104" s="11"/>
       <c r="M104" s="39"/>
       <c r="N104" s="11"/>
-      <c r="P104" s="16"/>
-      <c r="Q104" s="18"/>
-      <c r="R104" s="18"/>
-      <c r="S104" s="18"/>
-      <c r="T104" s="18"/>
-      <c r="U104" s="18"/>
-      <c r="V104" s="18"/>
-      <c r="X104" s="18"/>
-      <c r="Y104" s="16"/>
-      <c r="AB104" s="14"/>
-      <c r="AC104" s="14"/>
-      <c r="AD104" s="14"/>
-      <c r="AE104" s="14"/>
-      <c r="AF104" s="14"/>
-      <c r="AG104" s="14"/>
-      <c r="AH104" s="14"/>
-      <c r="AI104" s="14"/>
-      <c r="AJ104" s="14"/>
-      <c r="AK104" s="14"/>
-      <c r="AL104" s="14"/>
-      <c r="AM104" s="14"/>
-      <c r="AN104" s="14"/>
-      <c r="AO104" s="18"/>
-      <c r="AP104" s="18"/>
-      <c r="AQ104" s="18"/>
-      <c r="AR104" s="18"/>
-      <c r="AS104" s="18"/>
-      <c r="AT104" s="14"/>
-      <c r="AU104" s="18"/>
-      <c r="AV104" s="18"/>
-    </row>
-    <row r="105" spans="1:48" s="13" customFormat="1" ht="25.35" customHeight="1">
+    </row>
+    <row r="105" spans="1:48" ht="25.35" customHeight="1">
       <c r="A105" s="6"/>
-      <c r="B105" s="7"/>
-      <c r="C105" s="7"/>
-      <c r="D105" s="23"/>
+      <c r="B105" s="11"/>
+      <c r="C105" s="11"/>
+      <c r="D105" s="11"/>
       <c r="E105" s="11"/>
       <c r="F105" s="11"/>
       <c r="G105" s="9"/>
@@ -6097,42 +6069,12 @@
       <c r="L105" s="11"/>
       <c r="M105" s="39"/>
       <c r="N105" s="11"/>
-      <c r="P105" s="16"/>
-      <c r="Q105" s="18"/>
-      <c r="R105" s="18"/>
-      <c r="S105" s="18"/>
-      <c r="T105" s="18"/>
-      <c r="U105" s="18"/>
-      <c r="V105" s="18"/>
-      <c r="X105" s="18"/>
-      <c r="Y105" s="16"/>
-      <c r="AB105" s="14"/>
-      <c r="AC105" s="14"/>
-      <c r="AD105" s="14"/>
-      <c r="AE105" s="14"/>
-      <c r="AF105" s="14"/>
-      <c r="AG105" s="14"/>
-      <c r="AH105" s="14"/>
-      <c r="AI105" s="14"/>
-      <c r="AJ105" s="14"/>
-      <c r="AK105" s="14"/>
-      <c r="AL105" s="14"/>
-      <c r="AM105" s="14"/>
-      <c r="AN105" s="14"/>
-      <c r="AO105" s="18"/>
-      <c r="AP105" s="18"/>
-      <c r="AQ105" s="18"/>
-      <c r="AR105" s="18"/>
-      <c r="AS105" s="18"/>
-      <c r="AT105" s="14"/>
-      <c r="AU105" s="18"/>
-      <c r="AV105" s="18"/>
     </row>
     <row r="106" spans="1:48" ht="25.35" customHeight="1">
       <c r="A106" s="6"/>
-      <c r="B106" s="7"/>
-      <c r="C106" s="7"/>
-      <c r="D106" s="23"/>
+      <c r="B106" s="22"/>
+      <c r="C106" s="22"/>
+      <c r="D106" s="22"/>
       <c r="E106" s="11"/>
       <c r="F106" s="11"/>
       <c r="G106" s="9"/>
@@ -6178,9 +6120,9 @@
     </row>
     <row r="109" spans="1:48" ht="25.35" customHeight="1">
       <c r="A109" s="6"/>
-      <c r="B109" s="11"/>
-      <c r="C109" s="11"/>
-      <c r="D109" s="11"/>
+      <c r="B109" s="22"/>
+      <c r="C109" s="22"/>
+      <c r="D109" s="22"/>
       <c r="E109" s="11"/>
       <c r="F109" s="11"/>
       <c r="G109" s="9"/>
@@ -6212,7 +6154,7 @@
       <c r="A111" s="6"/>
       <c r="B111" s="22"/>
       <c r="C111" s="22"/>
-      <c r="D111" s="22"/>
+      <c r="D111" s="11"/>
       <c r="E111" s="11"/>
       <c r="F111" s="11"/>
       <c r="G111" s="9"/>
@@ -6223,12 +6165,36 @@
       <c r="L111" s="11"/>
       <c r="M111" s="39"/>
       <c r="N111" s="11"/>
+      <c r="O111" s="42"/>
+      <c r="P111" s="43"/>
+      <c r="Q111" s="44"/>
+      <c r="R111" s="44"/>
+      <c r="S111" s="44"/>
+      <c r="T111" s="44"/>
+      <c r="U111" s="44"/>
+      <c r="V111" s="44"/>
+      <c r="W111" s="42"/>
+      <c r="X111" s="44"/>
+      <c r="Y111" s="43"/>
+      <c r="Z111" s="42"/>
+      <c r="AA111" s="42"/>
+      <c r="AB111" s="45"/>
+      <c r="AC111" s="45"/>
+      <c r="AD111" s="45"/>
+      <c r="AE111" s="45"/>
+      <c r="AF111" s="45"/>
+      <c r="AG111" s="45"/>
+      <c r="AH111" s="45"/>
+      <c r="AI111" s="45"/>
+      <c r="AJ111" s="45"/>
+      <c r="AK111" s="45"/>
+      <c r="AL111" s="45"/>
     </row>
     <row r="112" spans="1:48" ht="25.35" customHeight="1">
       <c r="A112" s="6"/>
       <c r="B112" s="22"/>
       <c r="C112" s="22"/>
-      <c r="D112" s="22"/>
+      <c r="D112" s="11"/>
       <c r="E112" s="11"/>
       <c r="F112" s="11"/>
       <c r="G112" s="9"/>
@@ -6242,8 +6208,8 @@
     </row>
     <row r="113" spans="1:48" ht="25.35" customHeight="1">
       <c r="A113" s="6"/>
-      <c r="B113" s="22"/>
-      <c r="C113" s="22"/>
+      <c r="B113" s="11"/>
+      <c r="C113" s="11"/>
       <c r="D113" s="11"/>
       <c r="E113" s="11"/>
       <c r="F113" s="11"/>
@@ -6255,36 +6221,12 @@
       <c r="L113" s="11"/>
       <c r="M113" s="39"/>
       <c r="N113" s="11"/>
-      <c r="O113" s="42"/>
-      <c r="P113" s="43"/>
-      <c r="Q113" s="44"/>
-      <c r="R113" s="44"/>
-      <c r="S113" s="44"/>
-      <c r="T113" s="44"/>
-      <c r="U113" s="44"/>
-      <c r="V113" s="44"/>
-      <c r="W113" s="42"/>
-      <c r="X113" s="44"/>
-      <c r="Y113" s="43"/>
-      <c r="Z113" s="42"/>
-      <c r="AA113" s="42"/>
-      <c r="AB113" s="45"/>
-      <c r="AC113" s="45"/>
-      <c r="AD113" s="45"/>
-      <c r="AE113" s="45"/>
-      <c r="AF113" s="45"/>
-      <c r="AG113" s="45"/>
-      <c r="AH113" s="45"/>
-      <c r="AI113" s="45"/>
-      <c r="AJ113" s="45"/>
-      <c r="AK113" s="45"/>
-      <c r="AL113" s="45"/>
     </row>
     <row r="114" spans="1:48" ht="25.35" customHeight="1">
       <c r="A114" s="6"/>
       <c r="B114" s="22"/>
       <c r="C114" s="22"/>
-      <c r="D114" s="11"/>
+      <c r="D114" s="22"/>
       <c r="E114" s="11"/>
       <c r="F114" s="11"/>
       <c r="G114" s="9"/>
@@ -6298,33 +6240,33 @@
     </row>
     <row r="115" spans="1:48" ht="25.35" customHeight="1">
       <c r="A115" s="6"/>
-      <c r="B115" s="11"/>
-      <c r="C115" s="11"/>
-      <c r="D115" s="11"/>
-      <c r="E115" s="11"/>
-      <c r="F115" s="11"/>
-      <c r="G115" s="9"/>
+      <c r="B115" s="7"/>
+      <c r="C115" s="7"/>
+      <c r="D115" s="23"/>
+      <c r="E115" s="40"/>
+      <c r="F115" s="40"/>
+      <c r="G115" s="41"/>
       <c r="H115" s="8"/>
       <c r="I115" s="21"/>
       <c r="J115" s="21"/>
       <c r="K115" s="21"/>
-      <c r="L115" s="11"/>
+      <c r="L115" s="21"/>
       <c r="M115" s="39"/>
       <c r="N115" s="11"/>
     </row>
     <row r="116" spans="1:48" ht="25.35" customHeight="1">
       <c r="A116" s="6"/>
-      <c r="B116" s="22"/>
-      <c r="C116" s="22"/>
-      <c r="D116" s="22"/>
-      <c r="E116" s="11"/>
-      <c r="F116" s="11"/>
-      <c r="G116" s="9"/>
+      <c r="B116" s="7"/>
+      <c r="C116" s="7"/>
+      <c r="D116" s="23"/>
+      <c r="E116" s="40"/>
+      <c r="F116" s="40"/>
+      <c r="G116" s="41"/>
       <c r="H116" s="8"/>
       <c r="I116" s="21"/>
       <c r="J116" s="21"/>
       <c r="K116" s="21"/>
-      <c r="L116" s="11"/>
+      <c r="L116" s="21"/>
       <c r="M116" s="39"/>
       <c r="N116" s="11"/>
     </row>
@@ -6344,7 +6286,7 @@
       <c r="M117" s="39"/>
       <c r="N117" s="11"/>
     </row>
-    <row r="118" spans="1:48" ht="25.35" customHeight="1">
+    <row r="118" spans="1:48" s="14" customFormat="1" ht="25.35" customHeight="1">
       <c r="A118" s="6"/>
       <c r="B118" s="7"/>
       <c r="C118" s="7"/>
@@ -6359,8 +6301,28 @@
       <c r="L118" s="21"/>
       <c r="M118" s="39"/>
       <c r="N118" s="11"/>
-    </row>
-    <row r="119" spans="1:48" ht="25.35" customHeight="1">
+      <c r="O118" s="13"/>
+      <c r="P118" s="16"/>
+      <c r="Q118" s="18"/>
+      <c r="R118" s="18"/>
+      <c r="S118" s="18"/>
+      <c r="T118" s="18"/>
+      <c r="U118" s="18"/>
+      <c r="V118" s="18"/>
+      <c r="W118" s="13"/>
+      <c r="X118" s="18"/>
+      <c r="Y118" s="16"/>
+      <c r="Z118" s="13"/>
+      <c r="AA118" s="13"/>
+      <c r="AO118" s="18"/>
+      <c r="AP118" s="18"/>
+      <c r="AQ118" s="18"/>
+      <c r="AR118" s="18"/>
+      <c r="AS118" s="18"/>
+      <c r="AU118" s="18"/>
+      <c r="AV118" s="18"/>
+    </row>
+    <row r="119" spans="1:48" s="14" customFormat="1" ht="25.35" customHeight="1">
       <c r="A119" s="6"/>
       <c r="B119" s="7"/>
       <c r="C119" s="7"/>
@@ -6375,6 +6337,26 @@
       <c r="L119" s="21"/>
       <c r="M119" s="39"/>
       <c r="N119" s="11"/>
+      <c r="O119" s="13"/>
+      <c r="P119" s="16"/>
+      <c r="Q119" s="18"/>
+      <c r="R119" s="18"/>
+      <c r="S119" s="18"/>
+      <c r="T119" s="18"/>
+      <c r="U119" s="18"/>
+      <c r="V119" s="18"/>
+      <c r="W119" s="13"/>
+      <c r="X119" s="18"/>
+      <c r="Y119" s="16"/>
+      <c r="Z119" s="13"/>
+      <c r="AA119" s="13"/>
+      <c r="AO119" s="18"/>
+      <c r="AP119" s="18"/>
+      <c r="AQ119" s="18"/>
+      <c r="AR119" s="18"/>
+      <c r="AS119" s="18"/>
+      <c r="AU119" s="18"/>
+      <c r="AV119" s="18"/>
     </row>
     <row r="120" spans="1:48" s="14" customFormat="1" ht="25.35" customHeight="1">
       <c r="A120" s="6"/>
@@ -6417,14 +6399,14 @@
       <c r="B121" s="7"/>
       <c r="C121" s="7"/>
       <c r="D121" s="23"/>
-      <c r="E121" s="40"/>
-      <c r="F121" s="40"/>
-      <c r="G121" s="41"/>
+      <c r="E121" s="11"/>
+      <c r="F121" s="11"/>
+      <c r="G121" s="9"/>
       <c r="H121" s="8"/>
       <c r="I121" s="21"/>
       <c r="J121" s="21"/>
       <c r="K121" s="21"/>
-      <c r="L121" s="21"/>
+      <c r="L121" s="11"/>
       <c r="M121" s="39"/>
       <c r="N121" s="11"/>
       <c r="O121" s="13"/>
@@ -6453,14 +6435,14 @@
       <c r="B122" s="7"/>
       <c r="C122" s="7"/>
       <c r="D122" s="23"/>
-      <c r="E122" s="40"/>
-      <c r="F122" s="40"/>
-      <c r="G122" s="41"/>
+      <c r="E122" s="11"/>
+      <c r="F122" s="11"/>
+      <c r="G122" s="9"/>
       <c r="H122" s="8"/>
       <c r="I122" s="21"/>
       <c r="J122" s="21"/>
       <c r="K122" s="21"/>
-      <c r="L122" s="21"/>
+      <c r="L122" s="11"/>
       <c r="M122" s="39"/>
       <c r="N122" s="11"/>
       <c r="O122" s="13"/>
@@ -6593,10 +6575,10 @@
       <c r="AV125" s="18"/>
     </row>
     <row r="126" spans="1:48" s="14" customFormat="1" ht="25.35" customHeight="1">
-      <c r="A126" s="6"/>
-      <c r="B126" s="7"/>
-      <c r="C126" s="7"/>
-      <c r="D126" s="23"/>
+      <c r="A126" s="46"/>
+      <c r="B126" s="22"/>
+      <c r="C126" s="22"/>
+      <c r="D126" s="9"/>
       <c r="E126" s="11"/>
       <c r="F126" s="11"/>
       <c r="G126" s="9"/>
@@ -6629,9 +6611,9 @@
       <c r="AV126" s="18"/>
     </row>
     <row r="127" spans="1:48" s="14" customFormat="1" ht="25.35" customHeight="1">
-      <c r="A127" s="6"/>
-      <c r="B127" s="7"/>
-      <c r="C127" s="7"/>
+      <c r="A127" s="46"/>
+      <c r="B127" s="22"/>
+      <c r="C127" s="22"/>
       <c r="D127" s="23"/>
       <c r="E127" s="11"/>
       <c r="F127" s="11"/>
@@ -6668,7 +6650,7 @@
       <c r="A128" s="46"/>
       <c r="B128" s="22"/>
       <c r="C128" s="22"/>
-      <c r="D128" s="9"/>
+      <c r="D128" s="23"/>
       <c r="E128" s="11"/>
       <c r="F128" s="11"/>
       <c r="G128" s="9"/>
@@ -6704,7 +6686,7 @@
       <c r="A129" s="46"/>
       <c r="B129" s="22"/>
       <c r="C129" s="22"/>
-      <c r="D129" s="23"/>
+      <c r="D129" s="9"/>
       <c r="E129" s="11"/>
       <c r="F129" s="11"/>
       <c r="G129" s="9"/>
@@ -6740,7 +6722,7 @@
       <c r="A130" s="46"/>
       <c r="B130" s="22"/>
       <c r="C130" s="22"/>
-      <c r="D130" s="23"/>
+      <c r="D130" s="9"/>
       <c r="E130" s="11"/>
       <c r="F130" s="11"/>
       <c r="G130" s="9"/>
@@ -6812,7 +6794,7 @@
       <c r="A132" s="46"/>
       <c r="B132" s="22"/>
       <c r="C132" s="22"/>
-      <c r="D132" s="9"/>
+      <c r="D132" s="23"/>
       <c r="E132" s="11"/>
       <c r="F132" s="11"/>
       <c r="G132" s="9"/>
@@ -6848,7 +6830,7 @@
       <c r="A133" s="46"/>
       <c r="B133" s="22"/>
       <c r="C133" s="22"/>
-      <c r="D133" s="9"/>
+      <c r="D133" s="23"/>
       <c r="E133" s="11"/>
       <c r="F133" s="11"/>
       <c r="G133" s="9"/>
@@ -7097,10 +7079,10 @@
       <c r="AV139" s="18"/>
     </row>
     <row r="140" spans="1:48" s="14" customFormat="1" ht="25.35" customHeight="1">
-      <c r="A140" s="46"/>
-      <c r="B140" s="22"/>
-      <c r="C140" s="22"/>
-      <c r="D140" s="23"/>
+      <c r="A140" s="21"/>
+      <c r="B140" s="7"/>
+      <c r="C140" s="7"/>
+      <c r="D140" s="9"/>
       <c r="E140" s="11"/>
       <c r="F140" s="11"/>
       <c r="G140" s="9"/>
@@ -7108,7 +7090,7 @@
       <c r="I140" s="21"/>
       <c r="J140" s="21"/>
       <c r="K140" s="21"/>
-      <c r="L140" s="11"/>
+      <c r="L140" s="21"/>
       <c r="M140" s="39"/>
       <c r="N140" s="11"/>
       <c r="O140" s="13"/>
@@ -7133,9 +7115,9 @@
       <c r="AV140" s="18"/>
     </row>
     <row r="141" spans="1:48" s="14" customFormat="1" ht="25.35" customHeight="1">
-      <c r="A141" s="46"/>
-      <c r="B141" s="22"/>
-      <c r="C141" s="22"/>
+      <c r="A141" s="21"/>
+      <c r="B141" s="7"/>
+      <c r="C141" s="7"/>
       <c r="D141" s="23"/>
       <c r="E141" s="11"/>
       <c r="F141" s="11"/>
@@ -7144,7 +7126,7 @@
       <c r="I141" s="21"/>
       <c r="J141" s="21"/>
       <c r="K141" s="21"/>
-      <c r="L141" s="11"/>
+      <c r="L141" s="21"/>
       <c r="M141" s="39"/>
       <c r="N141" s="11"/>
       <c r="O141" s="13"/>
@@ -7172,7 +7154,7 @@
       <c r="A142" s="21"/>
       <c r="B142" s="7"/>
       <c r="C142" s="7"/>
-      <c r="D142" s="9"/>
+      <c r="D142" s="23"/>
       <c r="E142" s="11"/>
       <c r="F142" s="11"/>
       <c r="G142" s="9"/>
@@ -7456,7 +7438,7 @@
       <c r="AU149" s="18"/>
       <c r="AV149" s="18"/>
     </row>
-    <row r="150" spans="1:48" s="14" customFormat="1" ht="25.35" customHeight="1">
+    <row r="150" spans="1:48" s="13" customFormat="1" ht="25.35" customHeight="1">
       <c r="A150" s="21"/>
       <c r="B150" s="7"/>
       <c r="C150" s="7"/>
@@ -7471,7 +7453,6 @@
       <c r="L150" s="21"/>
       <c r="M150" s="39"/>
       <c r="N150" s="11"/>
-      <c r="O150" s="13"/>
       <c r="P150" s="16"/>
       <c r="Q150" s="18"/>
       <c r="R150" s="18"/>
@@ -7479,20 +7460,31 @@
       <c r="T150" s="18"/>
       <c r="U150" s="18"/>
       <c r="V150" s="18"/>
-      <c r="W150" s="13"/>
       <c r="X150" s="18"/>
       <c r="Y150" s="16"/>
-      <c r="Z150" s="13"/>
-      <c r="AA150" s="13"/>
+      <c r="AB150" s="14"/>
+      <c r="AC150" s="14"/>
+      <c r="AD150" s="14"/>
+      <c r="AE150" s="14"/>
+      <c r="AF150" s="14"/>
+      <c r="AG150" s="14"/>
+      <c r="AH150" s="14"/>
+      <c r="AI150" s="14"/>
+      <c r="AJ150" s="14"/>
+      <c r="AK150" s="14"/>
+      <c r="AL150" s="14"/>
+      <c r="AM150" s="14"/>
+      <c r="AN150" s="14"/>
       <c r="AO150" s="18"/>
       <c r="AP150" s="18"/>
       <c r="AQ150" s="18"/>
       <c r="AR150" s="18"/>
       <c r="AS150" s="18"/>
+      <c r="AT150" s="14"/>
       <c r="AU150" s="18"/>
       <c r="AV150" s="18"/>
     </row>
-    <row r="151" spans="1:48" s="14" customFormat="1" ht="25.35" customHeight="1">
+    <row r="151" spans="1:48" s="13" customFormat="1" ht="25.35" customHeight="1">
       <c r="A151" s="21"/>
       <c r="B151" s="7"/>
       <c r="C151" s="7"/>
@@ -7507,7 +7499,6 @@
       <c r="L151" s="21"/>
       <c r="M151" s="39"/>
       <c r="N151" s="11"/>
-      <c r="O151" s="13"/>
       <c r="P151" s="16"/>
       <c r="Q151" s="18"/>
       <c r="R151" s="18"/>
@@ -7515,16 +7506,27 @@
       <c r="T151" s="18"/>
       <c r="U151" s="18"/>
       <c r="V151" s="18"/>
-      <c r="W151" s="13"/>
       <c r="X151" s="18"/>
       <c r="Y151" s="16"/>
-      <c r="Z151" s="13"/>
-      <c r="AA151" s="13"/>
+      <c r="AB151" s="14"/>
+      <c r="AC151" s="14"/>
+      <c r="AD151" s="14"/>
+      <c r="AE151" s="14"/>
+      <c r="AF151" s="14"/>
+      <c r="AG151" s="14"/>
+      <c r="AH151" s="14"/>
+      <c r="AI151" s="14"/>
+      <c r="AJ151" s="14"/>
+      <c r="AK151" s="14"/>
+      <c r="AL151" s="14"/>
+      <c r="AM151" s="14"/>
+      <c r="AN151" s="14"/>
       <c r="AO151" s="18"/>
       <c r="AP151" s="18"/>
       <c r="AQ151" s="18"/>
       <c r="AR151" s="18"/>
       <c r="AS151" s="18"/>
+      <c r="AT151" s="14"/>
       <c r="AU151" s="18"/>
       <c r="AV151" s="18"/>
     </row>
@@ -7762,7 +7764,7 @@
       <c r="A157" s="21"/>
       <c r="B157" s="7"/>
       <c r="C157" s="7"/>
-      <c r="D157" s="23"/>
+      <c r="D157" s="9"/>
       <c r="E157" s="11"/>
       <c r="F157" s="11"/>
       <c r="G157" s="9"/>
@@ -7854,7 +7856,7 @@
       <c r="A159" s="21"/>
       <c r="B159" s="7"/>
       <c r="C159" s="7"/>
-      <c r="D159" s="9"/>
+      <c r="D159" s="23"/>
       <c r="E159" s="11"/>
       <c r="F159" s="11"/>
       <c r="G159" s="9"/>
@@ -7946,7 +7948,7 @@
       <c r="A161" s="21"/>
       <c r="B161" s="7"/>
       <c r="C161" s="7"/>
-      <c r="D161" s="23"/>
+      <c r="D161" s="9"/>
       <c r="E161" s="11"/>
       <c r="F161" s="11"/>
       <c r="G161" s="9"/>
@@ -7992,7 +7994,7 @@
       <c r="A162" s="21"/>
       <c r="B162" s="7"/>
       <c r="C162" s="7"/>
-      <c r="D162" s="23"/>
+      <c r="D162" s="9"/>
       <c r="E162" s="11"/>
       <c r="F162" s="11"/>
       <c r="G162" s="9"/>
@@ -8084,7 +8086,7 @@
       <c r="A164" s="21"/>
       <c r="B164" s="7"/>
       <c r="C164" s="7"/>
-      <c r="D164" s="9"/>
+      <c r="D164" s="23"/>
       <c r="E164" s="11"/>
       <c r="F164" s="11"/>
       <c r="G164" s="9"/>
@@ -8130,7 +8132,7 @@
       <c r="A165" s="21"/>
       <c r="B165" s="7"/>
       <c r="C165" s="7"/>
-      <c r="D165" s="9"/>
+      <c r="D165" s="23"/>
       <c r="E165" s="11"/>
       <c r="F165" s="11"/>
       <c r="G165" s="9"/>
@@ -8452,7 +8454,7 @@
       <c r="A172" s="21"/>
       <c r="B172" s="7"/>
       <c r="C172" s="7"/>
-      <c r="D172" s="23"/>
+      <c r="D172" s="9"/>
       <c r="E172" s="11"/>
       <c r="F172" s="11"/>
       <c r="G172" s="9"/>
@@ -8498,7 +8500,7 @@
       <c r="A173" s="21"/>
       <c r="B173" s="7"/>
       <c r="C173" s="7"/>
-      <c r="D173" s="23"/>
+      <c r="D173" s="9"/>
       <c r="E173" s="11"/>
       <c r="F173" s="11"/>
       <c r="G173" s="9"/>
@@ -8912,7 +8914,7 @@
       <c r="A182" s="21"/>
       <c r="B182" s="7"/>
       <c r="C182" s="7"/>
-      <c r="D182" s="9"/>
+      <c r="D182" s="23"/>
       <c r="E182" s="11"/>
       <c r="F182" s="11"/>
       <c r="G182" s="9"/>
@@ -8958,7 +8960,7 @@
       <c r="A183" s="21"/>
       <c r="B183" s="7"/>
       <c r="C183" s="7"/>
-      <c r="D183" s="9"/>
+      <c r="D183" s="23"/>
       <c r="E183" s="11"/>
       <c r="F183" s="11"/>
       <c r="G183" s="9"/>
@@ -9050,7 +9052,7 @@
       <c r="A185" s="21"/>
       <c r="B185" s="7"/>
       <c r="C185" s="7"/>
-      <c r="D185" s="23"/>
+      <c r="D185" s="9"/>
       <c r="E185" s="11"/>
       <c r="F185" s="11"/>
       <c r="G185" s="9"/>
@@ -9234,7 +9236,7 @@
       <c r="A189" s="21"/>
       <c r="B189" s="7"/>
       <c r="C189" s="7"/>
-      <c r="D189" s="9"/>
+      <c r="D189" s="23"/>
       <c r="E189" s="11"/>
       <c r="F189" s="11"/>
       <c r="G189" s="9"/>
@@ -9510,7 +9512,7 @@
       <c r="A195" s="21"/>
       <c r="B195" s="7"/>
       <c r="C195" s="7"/>
-      <c r="D195" s="23"/>
+      <c r="D195" s="9"/>
       <c r="E195" s="11"/>
       <c r="F195" s="11"/>
       <c r="G195" s="9"/>
@@ -9602,7 +9604,7 @@
       <c r="A197" s="21"/>
       <c r="B197" s="7"/>
       <c r="C197" s="7"/>
-      <c r="D197" s="9"/>
+      <c r="D197" s="23"/>
       <c r="E197" s="11"/>
       <c r="F197" s="11"/>
       <c r="G197" s="9"/>
@@ -9694,7 +9696,7 @@
       <c r="A199" s="21"/>
       <c r="B199" s="7"/>
       <c r="C199" s="7"/>
-      <c r="D199" s="23"/>
+      <c r="D199" s="9"/>
       <c r="E199" s="11"/>
       <c r="F199" s="11"/>
       <c r="G199" s="9"/>
@@ -9786,7 +9788,7 @@
       <c r="A201" s="21"/>
       <c r="B201" s="7"/>
       <c r="C201" s="7"/>
-      <c r="D201" s="9"/>
+      <c r="D201" s="23"/>
       <c r="E201" s="11"/>
       <c r="F201" s="11"/>
       <c r="G201" s="9"/>
@@ -9970,7 +9972,7 @@
       <c r="A205" s="21"/>
       <c r="B205" s="7"/>
       <c r="C205" s="7"/>
-      <c r="D205" s="23"/>
+      <c r="D205" s="9"/>
       <c r="E205" s="11"/>
       <c r="F205" s="11"/>
       <c r="G205" s="9"/>
@@ -10062,7 +10064,7 @@
       <c r="A207" s="21"/>
       <c r="B207" s="7"/>
       <c r="C207" s="7"/>
-      <c r="D207" s="9"/>
+      <c r="D207" s="23"/>
       <c r="E207" s="11"/>
       <c r="F207" s="11"/>
       <c r="G207" s="9"/>
@@ -10246,7 +10248,7 @@
       <c r="A211" s="21"/>
       <c r="B211" s="7"/>
       <c r="C211" s="7"/>
-      <c r="D211" s="23"/>
+      <c r="D211" s="9"/>
       <c r="E211" s="11"/>
       <c r="F211" s="11"/>
       <c r="G211" s="9"/>
@@ -10338,7 +10340,7 @@
       <c r="A213" s="21"/>
       <c r="B213" s="7"/>
       <c r="C213" s="7"/>
-      <c r="D213" s="9"/>
+      <c r="D213" s="23"/>
       <c r="E213" s="11"/>
       <c r="F213" s="11"/>
       <c r="G213" s="9"/>
@@ -10522,7 +10524,7 @@
       <c r="A217" s="21"/>
       <c r="B217" s="7"/>
       <c r="C217" s="7"/>
-      <c r="D217" s="23"/>
+      <c r="D217" s="9"/>
       <c r="E217" s="11"/>
       <c r="F217" s="11"/>
       <c r="G217" s="9"/>
@@ -10614,7 +10616,7 @@
       <c r="A219" s="21"/>
       <c r="B219" s="7"/>
       <c r="C219" s="7"/>
-      <c r="D219" s="9"/>
+      <c r="D219" s="23"/>
       <c r="E219" s="11"/>
       <c r="F219" s="11"/>
       <c r="G219" s="9"/>
@@ -10657,7 +10659,7 @@
       <c r="AV219" s="18"/>
     </row>
     <row r="220" spans="1:48" s="13" customFormat="1" ht="25.35" customHeight="1">
-      <c r="A220" s="21"/>
+      <c r="A220" s="6"/>
       <c r="B220" s="7"/>
       <c r="C220" s="7"/>
       <c r="D220" s="23"/>
@@ -10703,7 +10705,7 @@
       <c r="AV220" s="18"/>
     </row>
     <row r="221" spans="1:48" s="13" customFormat="1" ht="25.35" customHeight="1">
-      <c r="A221" s="21"/>
+      <c r="A221" s="6"/>
       <c r="B221" s="7"/>
       <c r="C221" s="7"/>
       <c r="D221" s="23"/>
@@ -10798,7 +10800,7 @@
       <c r="A223" s="6"/>
       <c r="B223" s="7"/>
       <c r="C223" s="7"/>
-      <c r="D223" s="23"/>
+      <c r="D223" s="9"/>
       <c r="E223" s="11"/>
       <c r="F223" s="11"/>
       <c r="G223" s="9"/>
@@ -10890,7 +10892,7 @@
       <c r="A225" s="6"/>
       <c r="B225" s="7"/>
       <c r="C225" s="7"/>
-      <c r="D225" s="9"/>
+      <c r="D225" s="23"/>
       <c r="E225" s="11"/>
       <c r="F225" s="11"/>
       <c r="G225" s="9"/>
@@ -10936,7 +10938,7 @@
       <c r="A226" s="6"/>
       <c r="B226" s="7"/>
       <c r="C226" s="7"/>
-      <c r="D226" s="23"/>
+      <c r="D226" s="9"/>
       <c r="E226" s="11"/>
       <c r="F226" s="11"/>
       <c r="G226" s="9"/>
@@ -10982,7 +10984,7 @@
       <c r="A227" s="6"/>
       <c r="B227" s="7"/>
       <c r="C227" s="7"/>
-      <c r="D227" s="23"/>
+      <c r="D227" s="9"/>
       <c r="E227" s="11"/>
       <c r="F227" s="11"/>
       <c r="G227" s="9"/>
@@ -11028,7 +11030,7 @@
       <c r="A228" s="6"/>
       <c r="B228" s="7"/>
       <c r="C228" s="7"/>
-      <c r="D228" s="9"/>
+      <c r="D228" s="23"/>
       <c r="E228" s="11"/>
       <c r="F228" s="11"/>
       <c r="G228" s="9"/>
@@ -11074,7 +11076,7 @@
       <c r="A229" s="6"/>
       <c r="B229" s="7"/>
       <c r="C229" s="7"/>
-      <c r="D229" s="9"/>
+      <c r="D229" s="23"/>
       <c r="E229" s="11"/>
       <c r="F229" s="11"/>
       <c r="G229" s="9"/>
@@ -11210,9 +11212,9 @@
     </row>
     <row r="232" spans="1:48" s="13" customFormat="1" ht="25.35" customHeight="1">
       <c r="A232" s="6"/>
-      <c r="B232" s="7"/>
-      <c r="C232" s="7"/>
-      <c r="D232" s="23"/>
+      <c r="B232" s="11"/>
+      <c r="C232" s="11"/>
+      <c r="D232" s="9"/>
       <c r="E232" s="11"/>
       <c r="F232" s="11"/>
       <c r="G232" s="9"/>
@@ -11220,7 +11222,7 @@
       <c r="I232" s="21"/>
       <c r="J232" s="21"/>
       <c r="K232" s="21"/>
-      <c r="L232" s="21"/>
+      <c r="L232" s="11"/>
       <c r="M232" s="39"/>
       <c r="N232" s="11"/>
       <c r="P232" s="16"/>
@@ -11256,9 +11258,9 @@
     </row>
     <row r="233" spans="1:48" s="13" customFormat="1" ht="25.35" customHeight="1">
       <c r="A233" s="6"/>
-      <c r="B233" s="7"/>
-      <c r="C233" s="7"/>
-      <c r="D233" s="23"/>
+      <c r="B233" s="11"/>
+      <c r="C233" s="11"/>
+      <c r="D233" s="9"/>
       <c r="E233" s="11"/>
       <c r="F233" s="11"/>
       <c r="G233" s="9"/>
@@ -11266,7 +11268,7 @@
       <c r="I233" s="21"/>
       <c r="J233" s="21"/>
       <c r="K233" s="21"/>
-      <c r="L233" s="21"/>
+      <c r="L233" s="11"/>
       <c r="M233" s="39"/>
       <c r="N233" s="11"/>
       <c r="P233" s="16"/>
@@ -11392,7 +11394,7 @@
       <c r="AU235" s="18"/>
       <c r="AV235" s="18"/>
     </row>
-    <row r="236" spans="1:48" s="13" customFormat="1" ht="25.35" customHeight="1">
+    <row r="236" spans="1:48">
       <c r="A236" s="6"/>
       <c r="B236" s="11"/>
       <c r="C236" s="11"/>
@@ -11405,40 +11407,8 @@
       <c r="J236" s="21"/>
       <c r="K236" s="21"/>
       <c r="L236" s="11"/>
-      <c r="M236" s="39"/>
-      <c r="N236" s="11"/>
-      <c r="P236" s="16"/>
-      <c r="Q236" s="18"/>
-      <c r="R236" s="18"/>
-      <c r="S236" s="18"/>
-      <c r="T236" s="18"/>
-      <c r="U236" s="18"/>
-      <c r="V236" s="18"/>
-      <c r="X236" s="18"/>
-      <c r="Y236" s="16"/>
-      <c r="AB236" s="14"/>
-      <c r="AC236" s="14"/>
-      <c r="AD236" s="14"/>
-      <c r="AE236" s="14"/>
-      <c r="AF236" s="14"/>
-      <c r="AG236" s="14"/>
-      <c r="AH236" s="14"/>
-      <c r="AI236" s="14"/>
-      <c r="AJ236" s="14"/>
-      <c r="AK236" s="14"/>
-      <c r="AL236" s="14"/>
-      <c r="AM236" s="14"/>
-      <c r="AN236" s="14"/>
-      <c r="AO236" s="18"/>
-      <c r="AP236" s="18"/>
-      <c r="AQ236" s="18"/>
-      <c r="AR236" s="18"/>
-      <c r="AS236" s="18"/>
-      <c r="AT236" s="14"/>
-      <c r="AU236" s="18"/>
-      <c r="AV236" s="18"/>
-    </row>
-    <row r="237" spans="1:48" s="13" customFormat="1" ht="25.35" customHeight="1">
+    </row>
+    <row r="237" spans="1:48">
       <c r="A237" s="6"/>
       <c r="B237" s="11"/>
       <c r="C237" s="11"/>
@@ -11451,66 +11421,6 @@
       <c r="J237" s="21"/>
       <c r="K237" s="21"/>
       <c r="L237" s="11"/>
-      <c r="M237" s="39"/>
-      <c r="N237" s="11"/>
-      <c r="P237" s="16"/>
-      <c r="Q237" s="18"/>
-      <c r="R237" s="18"/>
-      <c r="S237" s="18"/>
-      <c r="T237" s="18"/>
-      <c r="U237" s="18"/>
-      <c r="V237" s="18"/>
-      <c r="X237" s="18"/>
-      <c r="Y237" s="16"/>
-      <c r="AB237" s="14"/>
-      <c r="AC237" s="14"/>
-      <c r="AD237" s="14"/>
-      <c r="AE237" s="14"/>
-      <c r="AF237" s="14"/>
-      <c r="AG237" s="14"/>
-      <c r="AH237" s="14"/>
-      <c r="AI237" s="14"/>
-      <c r="AJ237" s="14"/>
-      <c r="AK237" s="14"/>
-      <c r="AL237" s="14"/>
-      <c r="AM237" s="14"/>
-      <c r="AN237" s="14"/>
-      <c r="AO237" s="18"/>
-      <c r="AP237" s="18"/>
-      <c r="AQ237" s="18"/>
-      <c r="AR237" s="18"/>
-      <c r="AS237" s="18"/>
-      <c r="AT237" s="14"/>
-      <c r="AU237" s="18"/>
-      <c r="AV237" s="18"/>
-    </row>
-    <row r="238" spans="1:48">
-      <c r="A238" s="6"/>
-      <c r="B238" s="11"/>
-      <c r="C238" s="11"/>
-      <c r="D238" s="9"/>
-      <c r="E238" s="11"/>
-      <c r="F238" s="11"/>
-      <c r="G238" s="9"/>
-      <c r="H238" s="8"/>
-      <c r="I238" s="21"/>
-      <c r="J238" s="21"/>
-      <c r="K238" s="21"/>
-      <c r="L238" s="11"/>
-    </row>
-    <row r="239" spans="1:48">
-      <c r="A239" s="6"/>
-      <c r="B239" s="11"/>
-      <c r="C239" s="11"/>
-      <c r="D239" s="9"/>
-      <c r="E239" s="11"/>
-      <c r="F239" s="11"/>
-      <c r="G239" s="9"/>
-      <c r="H239" s="8"/>
-      <c r="I239" s="21"/>
-      <c r="J239" s="21"/>
-      <c r="K239" s="21"/>
-      <c r="L239" s="11"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:AS2"/>
@@ -11519,7 +11429,7 @@
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="字数限定" error="请用不多于22个文字描述事件" sqref="G122">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="字数限定" error="请用不多于22个文字描述事件" sqref="G120">
       <formula1>0</formula1>
       <formula2>22</formula2>
     </dataValidation>
